--- a/week-8/Exercises/8-2-A-excel-dashboard-exercises.xlsx
+++ b/week-8/Exercises/8-2-A-excel-dashboard-exercises.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\data-analytics-lectures\week-8\Exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{568F0B47-116E-46FC-89F4-0DF2DC052F6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4631401E-09D3-4A32-A5B6-C73581C68549}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29760" yWindow="1080" windowWidth="21600" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="teams" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
